--- a/data/MP_Office_Allocation.xlsx
+++ b/data/MP_Office_Allocation.xlsx
@@ -5,24 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shankardutt/Library/CloudStorage/OneDrive-AustralianNationalUniversity/Cloudstor/DOCUMENTS/Programming/Python/Miscellaneous/streamlit_Patrick's room allocation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anu365-my.sharepoint.com/personal/u6591731_anu_edu_au/Documents/Cloudstor/DOCUMENTS/Programming/Python/MP_Office_Management/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A13919-054A-DE47-9A1B-BADAC3B41285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{53F36FA0-46D1-6F49-A3B0-88C57D476C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF830433-C22C-014C-A93F-4147998D4DA3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
     <sheet name="Upcoming" sheetId="2" r:id="rId2"/>
     <sheet name="Past" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Current!$A$1:$F$97</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="255">
   <si>
     <t>Name</t>
   </si>
@@ -42,12 +45,216 @@
     <t>Building</t>
   </si>
   <si>
+    <t>Alwadi, Taleb Mr</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>u7380049@anu.edu.au</t>
+  </si>
+  <si>
+    <t>PhD Student</t>
+  </si>
+  <si>
+    <t>4.08</t>
+  </si>
+  <si>
+    <t>John Carver</t>
+  </si>
+  <si>
+    <t>Alzaidan, Noura</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>J4 16A Cubicles</t>
+  </si>
+  <si>
+    <t>Banerjee, Biswajit Dr</t>
+  </si>
+  <si>
+    <t>u1144094@anu.edu.au</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>Cockcroft</t>
+  </si>
+  <si>
+    <t>Barron, Aleese Ms</t>
+  </si>
+  <si>
+    <t>u5578846@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Postdoctoral Fellow</t>
+  </si>
+  <si>
+    <t>4.65</t>
+  </si>
+  <si>
+    <t>Bastidon, Noemie Dr</t>
+  </si>
+  <si>
+    <t>noemie.bastidon@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Research Fellow</t>
+  </si>
+  <si>
+    <t>4.63</t>
+  </si>
+  <si>
+    <t>Beeching, Levi Dr</t>
+  </si>
+  <si>
+    <t>levi.beeching@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Technical Officer</t>
+  </si>
+  <si>
+    <t>5.38</t>
+  </si>
+  <si>
+    <t>Bradby, Jodie Prof</t>
+  </si>
+  <si>
+    <t>jodie.bradby@anu.edu.au</t>
+  </si>
+  <si>
+    <t>4.14</t>
+  </si>
+  <si>
+    <t>Casas Ramos, Ana</t>
+  </si>
+  <si>
+    <t>u1120841@anu.edu.au</t>
+  </si>
+  <si>
+    <t>4.66</t>
+  </si>
+  <si>
+    <t>Caton, Judith</t>
+  </si>
+  <si>
+    <t>Departmental Visitor</t>
+  </si>
+  <si>
+    <t>4.23a</t>
+  </si>
+  <si>
+    <t>Chen, Yizhou (Joe) Mr</t>
+  </si>
+  <si>
+    <t>u7263421@anu.edu.au</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>Chiang, Cheng-I Mr</t>
+  </si>
+  <si>
+    <t>u7525090@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Corr, Cormac A/Prof</t>
+  </si>
+  <si>
+    <t>cormac.corr@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Senior Fellow</t>
+  </si>
+  <si>
+    <t>4.17</t>
+  </si>
+  <si>
+    <t>Craig, Vincent Professor</t>
+  </si>
+  <si>
+    <t>vince.craig@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>4.64</t>
+  </si>
+  <si>
+    <t>Danaher, Emma</t>
+  </si>
+  <si>
+    <t>u7540420@anu.edu.au</t>
+  </si>
+  <si>
+    <t>4.38</t>
+  </si>
+  <si>
+    <t>U4452761@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Fellow</t>
+  </si>
+  <si>
+    <t>4.39</t>
+  </si>
+  <si>
+    <t>Davis. Logan</t>
+  </si>
+  <si>
+    <t>u5798893@anu.edu.au</t>
+  </si>
+  <si>
+    <t>4.49</t>
+  </si>
+  <si>
+    <t>De Camillis, Simone</t>
+  </si>
+  <si>
+    <t>u1106703@anu.edu.au</t>
+  </si>
+  <si>
+    <t>4.48</t>
+  </si>
+  <si>
+    <t>Deakin, Lachlan Mr</t>
+  </si>
+  <si>
+    <t>U4847846@anu.edu.au</t>
+  </si>
+  <si>
+    <t>3.27</t>
+  </si>
+  <si>
+    <t>Donda, Thomas Mr</t>
+  </si>
+  <si>
+    <t>thomas.donda@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Shankar.Dutt@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Eksteen, Michale</t>
+  </si>
+  <si>
+    <t>u7487073@anu.edu.au</t>
+  </si>
+  <si>
+    <t>J4 16B Cubicles</t>
+  </si>
+  <si>
+    <t>J4 16C Cubicles</t>
+  </si>
+  <si>
     <t>Evans, Phil Prof</t>
   </si>
   <si>
-    <t>Current</t>
-  </si>
-  <si>
     <t>phil.evans@ubc.ca</t>
   </si>
   <si>
@@ -57,7 +264,169 @@
     <t>3.17</t>
   </si>
   <si>
-    <t>Cockcroft</t>
+    <t>Francois, Nicolas Dr</t>
+  </si>
+  <si>
+    <t>Nicolas.Francois@anu.edu.au</t>
+  </si>
+  <si>
+    <t>4.61</t>
+  </si>
+  <si>
+    <t>Fullagar, Wilfred Dr</t>
+  </si>
+  <si>
+    <t>U3497942@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Research Officer</t>
+  </si>
+  <si>
+    <t>4.68</t>
+  </si>
+  <si>
+    <t>Geethika Vinnakota</t>
+  </si>
+  <si>
+    <t>4.23</t>
+  </si>
+  <si>
+    <t>Gluck, Taylor</t>
+  </si>
+  <si>
+    <t>MPhil Student</t>
+  </si>
+  <si>
+    <t>Grewar, Murdock</t>
+  </si>
+  <si>
+    <t>u5374513@anu.edu.au</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>Haggren, Anne</t>
+  </si>
+  <si>
+    <t>Anne.Haggren@anu.edu.au</t>
+  </si>
+  <si>
+    <t>4.57</t>
+  </si>
+  <si>
+    <t>Heimes, Hendrik Mr</t>
+  </si>
+  <si>
+    <t>hendrik.heimes@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Henley, Richard Dr</t>
+  </si>
+  <si>
+    <t>u1817927@anu.edu.au</t>
+  </si>
+  <si>
+    <t>4.58</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>Heslop, David</t>
+  </si>
+  <si>
+    <t>u4919989@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Hort, Thomas</t>
+  </si>
+  <si>
+    <t>Thomas.Hort@anu.edu.au</t>
+  </si>
+  <si>
+    <t>4.09</t>
+  </si>
+  <si>
+    <t>Huang, Xingshuo</t>
+  </si>
+  <si>
+    <t>xingshuo.huang@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Huang, Ruotong Ms</t>
+  </si>
+  <si>
+    <t>u5942786@anu.edu.au</t>
+  </si>
+  <si>
+    <t>4.47</t>
+  </si>
+  <si>
+    <t>Jobbins, Murray</t>
+  </si>
+  <si>
+    <t>Murray.Jobbins@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Kandula, Neelima Dr</t>
+  </si>
+  <si>
+    <t>u1148600@anu.edu.au</t>
+  </si>
+  <si>
+    <t>4.59</t>
+  </si>
+  <si>
+    <t>Kennedy, Liam Mr</t>
+  </si>
+  <si>
+    <t>u1093867@anu.edu.au</t>
+  </si>
+  <si>
+    <t>4.55</t>
+  </si>
+  <si>
+    <t>Kingston, Andrew Dr</t>
+  </si>
+  <si>
+    <t>andrew.kingston@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Kiy, Alexander</t>
+  </si>
+  <si>
+    <t>u1053875@anu.edu.au</t>
+  </si>
+  <si>
+    <t>4.56</t>
+  </si>
+  <si>
+    <t>Kluth, Patrick Prof</t>
+  </si>
+  <si>
+    <t>patrick.kluth@anu.edu.au</t>
+  </si>
+  <si>
+    <t>4.15</t>
+  </si>
+  <si>
+    <t>Knackstedt, Mark Professor</t>
+  </si>
+  <si>
+    <t>mark.knackstedt@anu.edu.au</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>Knuefing, Lydia Ms</t>
+  </si>
+  <si>
+    <t>lydia.knuefing@anu.edu.au</t>
+  </si>
+  <si>
+    <t>4.67</t>
   </si>
   <si>
     <t>Larsson, Ankie Dr</t>
@@ -66,7 +435,106 @@
     <t>u4049728@anu.edu.au</t>
   </si>
   <si>
-    <t>Ninham, Barry Emeritus Professor</t>
+    <t>Latham, Shane Dr</t>
+  </si>
+  <si>
+    <t>shane.latham@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Liang, Zixin (Zoe) Ms</t>
+  </si>
+  <si>
+    <t>Zixin.Liang@anu.edu.au</t>
+  </si>
+  <si>
+    <t>4.46</t>
+  </si>
+  <si>
+    <t>Loesel, Philipp Dr</t>
+  </si>
+  <si>
+    <t>Philipp.Loesel@anu.edu.au</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>Lu, Xilin</t>
+  </si>
+  <si>
+    <t>u5794603@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Luquet, Marc Mr</t>
+  </si>
+  <si>
+    <t>u1115043@anu.edu.au</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>MP WORKSHOP</t>
+  </si>
+  <si>
+    <t>4.54</t>
+  </si>
+  <si>
+    <t>Mahoney, Nicholas</t>
+  </si>
+  <si>
+    <t>Maryam, Iqra</t>
+  </si>
+  <si>
+    <t>iqra.maryam@anu.edu.au</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matviichuk, Bogdan </t>
+  </si>
+  <si>
+    <t>u1160427@anu.edu.asu</t>
+  </si>
+  <si>
+    <t>McCormick, Brendan Dr</t>
+  </si>
+  <si>
+    <t>u5600477@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Middleton, Robert Mr</t>
+  </si>
+  <si>
+    <t>robert.1.middleton@anu.edu.au</t>
+  </si>
+  <si>
+    <t>3.19</t>
+  </si>
+  <si>
+    <t>Mozina, Alexander</t>
+  </si>
+  <si>
+    <t>u7491842@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Mukhtar, Kandeel Ms</t>
+  </si>
+  <si>
+    <t>u7016557@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Myers, Glenn Dr</t>
+  </si>
+  <si>
+    <t>glenn.myers@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Nakayama, Yurika</t>
+  </si>
+  <si>
+    <t>Narayan, Bhisma Mr</t>
+  </si>
+  <si>
+    <t>u7627452@anu.edu.au</t>
   </si>
   <si>
     <t>barry.ninham@anu.edu.au</t>
@@ -75,28 +543,19 @@
     <t>Emeritus Professor</t>
   </si>
   <si>
-    <t>Knackstedt, Mark Professor</t>
-  </si>
-  <si>
-    <t>mark.knackstedt@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Professor</t>
-  </si>
-  <si>
-    <t>3.18</t>
-  </si>
-  <si>
-    <t>Middleton, Robert Mr</t>
-  </si>
-  <si>
-    <t>robert.1.middleton@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Research Officer</t>
-  </si>
-  <si>
-    <t>3.19</t>
+    <t>Pascale, Ash</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ash.Pascale@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Rowe, Lachlan Mr</t>
+  </si>
+  <si>
+    <t>u7120381@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Honours Student</t>
   </si>
   <si>
     <t>STORAGE</t>
@@ -105,118 +564,40 @@
     <t>3.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Matviichuk, Bogdan </t>
-  </si>
-  <si>
-    <t>u1160427@anu.edu.asu</t>
-  </si>
-  <si>
-    <t>Rio programmer</t>
-  </si>
-  <si>
-    <t>3.21</t>
-  </si>
-  <si>
-    <t>Herlinger, Ronaldo Mr</t>
-  </si>
-  <si>
-    <t>u1142443@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Banerjee, Biswajit Dr</t>
-  </si>
-  <si>
-    <t>u1144094@anu.edu.au</t>
-  </si>
-  <si>
-    <t>3.22</t>
-  </si>
-  <si>
-    <t>Lu, Xilin</t>
-  </si>
-  <si>
-    <t>u5794603@anu.edu.au</t>
-  </si>
-  <si>
-    <t>STORAGE/WORKSHOP</t>
-  </si>
-  <si>
     <t>3.23</t>
   </si>
   <si>
-    <t>Grewar, Murdock</t>
-  </si>
-  <si>
-    <t>u5374513@anu.edu.au</t>
-  </si>
-  <si>
-    <t>PhD Student</t>
-  </si>
-  <si>
-    <t>3.24</t>
-  </si>
-  <si>
-    <t>Narayan, Bhisma Mr</t>
-  </si>
-  <si>
-    <t>u7627452@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Chen, Yizhou (Joe) Mr</t>
-  </si>
-  <si>
-    <t>u7263421@anu.edu.au</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>Chiang, Cheng-I Mr</t>
-  </si>
-  <si>
-    <t>u7525090@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Zavodna, Theresa</t>
-  </si>
-  <si>
-    <t>current</t>
-  </si>
-  <si>
-    <t>u1161280@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Rio CT</t>
-  </si>
-  <si>
-    <t>3,25</t>
-  </si>
-  <si>
-    <t>Rowe, Lachlan Mr</t>
-  </si>
-  <si>
-    <t>u7120381@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Honours Student</t>
-  </si>
-  <si>
-    <t>Luquet, Marc Mr</t>
-  </si>
-  <si>
-    <t>u1115043@anu.edu.au</t>
-  </si>
-  <si>
-    <t>3.26</t>
-  </si>
-  <si>
-    <t>McCormick, Brendan Dr</t>
-  </si>
-  <si>
-    <t>u5600477@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Engineer Officer</t>
+    <t>Saadatfar, Mohammad Dr</t>
+  </si>
+  <si>
+    <t>mohammad.saadatfar@anu.edu.au</t>
+  </si>
+  <si>
+    <t>4.18</t>
+  </si>
+  <si>
+    <t>Senden, Timothy Prof</t>
+  </si>
+  <si>
+    <t>Tim.Senden@anu.edu.au</t>
+  </si>
+  <si>
+    <t>3.09D</t>
+  </si>
+  <si>
+    <t>Shadwell, Matt Mr</t>
+  </si>
+  <si>
+    <t>Matt.Shadwell@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Sheppard, Adrian Prof</t>
+  </si>
+  <si>
+    <t>adrian.sheppard@anu.edu.au</t>
+  </si>
+  <si>
+    <t>4.62</t>
   </si>
   <si>
     <t>Sok, Robert Dr</t>
@@ -225,15 +606,6 @@
     <t>robert.sok@anu.edu.au</t>
   </si>
   <si>
-    <t>3.27</t>
-  </si>
-  <si>
-    <t>Deakin, Lachlan Mr</t>
-  </si>
-  <si>
-    <t>U4847846@anu.edu.au</t>
-  </si>
-  <si>
     <t>Stachurski, Zbigniew Dr</t>
   </si>
   <si>
@@ -243,13 +615,73 @@
     <t>4.37</t>
   </si>
   <si>
+    <t>Steklova, Klara Dr</t>
+  </si>
+  <si>
+    <t>Klara.Steklova@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Swain, Shubhashree Ms</t>
+  </si>
+  <si>
+    <t>u1157686@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Teo, Bryan</t>
+  </si>
+  <si>
+    <t>Soon.Teo@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Troitzsch, Ulli Dr</t>
+  </si>
+  <si>
+    <t>Ulrike.Troitzsch@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Turner, Michael Dr</t>
+  </si>
+  <si>
+    <t>michael.turner@anu.edu.au</t>
+  </si>
+  <si>
     <t>Vos, Maarten A/Prof</t>
   </si>
   <si>
     <t>maarten.vos@anu.edu.au</t>
   </si>
   <si>
-    <t>Senior Fellow</t>
+    <t>Wang, Bogong Mr</t>
+  </si>
+  <si>
+    <t>PhD student</t>
+  </si>
+  <si>
+    <t>Webster, Sarah Ms</t>
+  </si>
+  <si>
+    <t>sarah.webster@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Wierbik, Jessica Ms</t>
+  </si>
+  <si>
+    <t>jessica.wierbik@anu.edu.au</t>
+  </si>
+  <si>
+    <t>jim.williams@anu.edu.au</t>
+  </si>
+  <si>
+    <t>4.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiang Lian </t>
+  </si>
+  <si>
+    <t>Yiyue Huang</t>
+  </si>
+  <si>
+    <t>u7080106@anu.edu.au</t>
   </si>
   <si>
     <t>Young, Ben</t>
@@ -258,292 +690,16 @@
     <t>u4021945@au.edu.au</t>
   </si>
   <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>4.38</t>
-  </si>
-  <si>
-    <t>Danaher, Emma</t>
-  </si>
-  <si>
-    <t>u7540420@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Delgado-Friedrichs, Olaf Dr</t>
-  </si>
-  <si>
-    <t>U4452761@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Fellow</t>
-  </si>
-  <si>
-    <t>4.39</t>
-  </si>
-  <si>
-    <t>Myers, Glenn Dr</t>
-  </si>
-  <si>
-    <t>glenn.myers@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Research Fellow</t>
-  </si>
-  <si>
-    <t>Loesel, Philipp Dr</t>
-  </si>
-  <si>
-    <t>Philipp.Loesel@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Postdoctoral Fellow</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>SMARTLIGHT - Fiber Splicing Lab</t>
-  </si>
-  <si>
-    <t>4.43</t>
-  </si>
-  <si>
-    <t>MEETING ROOM</t>
-  </si>
-  <si>
-    <t>4.45</t>
-  </si>
-  <si>
-    <t>Webster, Sarah Ms</t>
-  </si>
-  <si>
-    <t>sarah.webster@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.46</t>
-  </si>
-  <si>
     <t>Young, Ben Mr</t>
   </si>
   <si>
     <t>benjamin.young@anu.edu.au</t>
   </si>
   <si>
-    <t>Mukhtar, Kandeel Ms</t>
-  </si>
-  <si>
-    <t>u7016557@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Smart Light</t>
-  </si>
-  <si>
-    <t>4.47</t>
-  </si>
-  <si>
-    <t>Yiyue Huang</t>
-  </si>
-  <si>
-    <t>u7080106@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Huang, Ruotong Ms</t>
-  </si>
-  <si>
-    <t>u5942786@anu.edu.au</t>
-  </si>
-  <si>
-    <t>De Camillis, Simone</t>
-  </si>
-  <si>
-    <t>u1106703@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.48</t>
-  </si>
-  <si>
-    <t>Davis. Logan</t>
-  </si>
-  <si>
-    <t>u5798893@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.49</t>
-  </si>
-  <si>
-    <t>Swain, Shubhashree Ms</t>
-  </si>
-  <si>
-    <t>u1157686@anu.edu.au</t>
-  </si>
-  <si>
-    <t>MP WORKSHOP</t>
-  </si>
-  <si>
-    <t>4.54</t>
-  </si>
-  <si>
-    <t>Shadwell, Matt Mr</t>
-  </si>
-  <si>
-    <t>Matt.Shadwell@anu.edu.au</t>
-  </si>
-  <si>
-    <t>MPhil Student</t>
-  </si>
-  <si>
-    <t>4.55</t>
-  </si>
-  <si>
-    <t>Kennedy, Liam Mr</t>
-  </si>
-  <si>
-    <t>u1093867@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Technical Officer</t>
-  </si>
-  <si>
-    <t>Kiy, Alexander</t>
-  </si>
-  <si>
-    <t>u1053875@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.56</t>
-  </si>
-  <si>
-    <t>Saadatfar, Mohammad Dr</t>
-  </si>
-  <si>
-    <t>mohammad.saadatfar@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Haggren, Anne</t>
-  </si>
-  <si>
-    <t>Anne.Haggren@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.57</t>
-  </si>
-  <si>
-    <t>Latham, Shane Dr</t>
-  </si>
-  <si>
-    <t>shane.latham@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Henley, Richard Dr</t>
-  </si>
-  <si>
-    <t>u1817927@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.58</t>
-  </si>
-  <si>
-    <t>Heslop, David</t>
-  </si>
-  <si>
-    <t>u4919989@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Departmental Visitor</t>
-  </si>
-  <si>
-    <t>Kandula, Neelima Dr</t>
-  </si>
-  <si>
-    <t>u1148600@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.59</t>
-  </si>
-  <si>
-    <t>Sophie Vimard</t>
-  </si>
-  <si>
-    <t>Yifu Zhang</t>
-  </si>
-  <si>
-    <t>PhD student 2025-</t>
-  </si>
-  <si>
-    <t>Francois, Nicolas Dr</t>
-  </si>
-  <si>
-    <t>Nicolas.Francois@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.61</t>
-  </si>
-  <si>
-    <t>Sheppard, Adrian Prof</t>
-  </si>
-  <si>
-    <t>adrian.sheppard@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.62</t>
-  </si>
-  <si>
-    <t>Bastidon, Noemie Dr</t>
-  </si>
-  <si>
-    <t>noemie.bastidon@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.63</t>
-  </si>
-  <si>
-    <t>Craig, Vincent Professor</t>
-  </si>
-  <si>
-    <t>vince.craig@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.64</t>
-  </si>
-  <si>
-    <t>Barron, Aleese Ms</t>
-  </si>
-  <si>
-    <t>u5578846@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.65</t>
-  </si>
-  <si>
-    <t>Steklova, Klara Dr</t>
-  </si>
-  <si>
-    <t>Klara.Steklova@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Troitzsch, Ulli Dr</t>
-  </si>
-  <si>
-    <t>Ulrike.Troitzsch@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.66</t>
-  </si>
-  <si>
-    <t>Casas Ramos, Ana</t>
-  </si>
-  <si>
-    <t>u1120841@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Knuefing, Lydia Ms</t>
-  </si>
-  <si>
-    <t>lydia.knuefing@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.67</t>
+    <t>Young, Gavin Dr</t>
+  </si>
+  <si>
+    <t>gavinyoung51@gmail.com</t>
   </si>
   <si>
     <t>Zhang, Yulai Dr</t>
@@ -552,335 +708,95 @@
     <t>yulai.zhang@anu.edu.au</t>
   </si>
   <si>
-    <t>Fullagar, Wilfred Dr</t>
-  </si>
-  <si>
-    <t>U3497942@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.68</t>
-  </si>
-  <si>
-    <t>Kingston, Andrew Dr</t>
-  </si>
-  <si>
-    <t>andrew.kingston@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Beeching, Levi Dr</t>
-  </si>
-  <si>
-    <t>levi.beeching@anu.edu.au</t>
-  </si>
-  <si>
-    <t>5.38</t>
-  </si>
-  <si>
-    <t>Turner, Michael Dr</t>
-  </si>
-  <si>
-    <t>michael.turner@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Senden, Timothy Prof</t>
-  </si>
-  <si>
-    <t>Tim.Senden@anu.edu.au</t>
-  </si>
-  <si>
-    <t>3.09D</t>
-  </si>
-  <si>
-    <t>Alwadi, Taleb Mr</t>
-  </si>
-  <si>
-    <t>u7380049@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.08</t>
-  </si>
-  <si>
-    <t>John Carver</t>
-  </si>
-  <si>
-    <t>Dutt, Shankar Mr</t>
-  </si>
-  <si>
-    <t>Shankar.Dutt@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Teo, Bryan</t>
-  </si>
-  <si>
-    <t>Soon.Teo@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.09</t>
-  </si>
-  <si>
-    <t>Hort, Thomas</t>
-  </si>
-  <si>
-    <t>Thomas.Hort@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Pascale, Ash</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ash.Pascale@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>Jobbins, Murray</t>
-  </si>
-  <si>
-    <t>Murray.Jobbins@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Afrin, Nahid Ms</t>
-  </si>
-  <si>
-    <t>u7219013@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.11</t>
-  </si>
-  <si>
-    <t>Huang, Xingshuo</t>
-  </si>
-  <si>
-    <t>xingshuo.huang@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Maryam, Iqra</t>
-  </si>
-  <si>
-    <t>iqra.maryam@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.12</t>
-  </si>
-  <si>
-    <t>Nakayama, Yurika</t>
-  </si>
-  <si>
-    <t>Arrives 15th November</t>
-  </si>
-  <si>
-    <t>Alzaidan, Noura</t>
-  </si>
-  <si>
-    <t>Arrives early december</t>
-  </si>
-  <si>
-    <t>Williams, Jim Emeritus Professor</t>
-  </si>
-  <si>
-    <t>jim.williams@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.13</t>
-  </si>
-  <si>
-    <t>Bradby, Jodie Prof</t>
-  </si>
-  <si>
-    <t>jodie.bradby@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Head of Department</t>
-  </si>
-  <si>
-    <t>4.14</t>
-  </si>
-  <si>
-    <t>Kluth, Patrick Prof</t>
-  </si>
-  <si>
-    <t>patrick.kluth@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.15</t>
-  </si>
-  <si>
-    <t>Corr, Cormac A/Prof</t>
-  </si>
-  <si>
-    <t>cormac.corr@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.17</t>
-  </si>
-  <si>
-    <t>Sam Case</t>
-  </si>
-  <si>
-    <t>4.18</t>
-  </si>
-  <si>
-    <t>Wang, Bogong Mr</t>
-  </si>
-  <si>
-    <t>PhD student</t>
-  </si>
-  <si>
-    <t>Heimes, Hendrik Mr</t>
-  </si>
-  <si>
-    <t>hendrik.heimes@anu.edu.au</t>
-  </si>
-  <si>
-    <t>4.23</t>
-  </si>
-  <si>
-    <t>Gluck, Taylor</t>
-  </si>
-  <si>
-    <t>Cuurent</t>
-  </si>
-  <si>
-    <t>Could move to the cubicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xiang Lian </t>
-  </si>
-  <si>
-    <t>Geethika Vinnakota</t>
-  </si>
-  <si>
-    <t>Wierbik, Jessica Ms</t>
-  </si>
-  <si>
-    <t>jessica.wierbik@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Young, Gavin Dr</t>
-  </si>
-  <si>
-    <t>gavinyoung51@gmail.com</t>
-  </si>
-  <si>
-    <t>4.23a</t>
-  </si>
-  <si>
-    <t>Caton, Judith</t>
-  </si>
-  <si>
-    <t>Donda, Thomas Mr</t>
-  </si>
-  <si>
-    <t>thomas.donda@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Technician</t>
-  </si>
-  <si>
-    <t>J4 16A Cubicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arnott. James </t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Mahoney, Nicholas</t>
-  </si>
-  <si>
-    <t>student</t>
-  </si>
-  <si>
-    <t>J4 16B Cubicles</t>
-  </si>
-  <si>
-    <t>Eksteen, Michale</t>
-  </si>
-  <si>
-    <t>u7487073@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Hons Student</t>
-  </si>
-  <si>
-    <t>Evans, Lauren</t>
-  </si>
-  <si>
-    <t>until march 2025</t>
-  </si>
-  <si>
-    <t>PhB Student</t>
-  </si>
-  <si>
-    <t>J4 16C Cubicles</t>
-  </si>
-  <si>
-    <t>Mozina, Alexander</t>
-  </si>
-  <si>
-    <t>u7491842@anu.edu.au</t>
-  </si>
-  <si>
-    <t>1st March to 31st August 2025</t>
-  </si>
-  <si>
-    <t>Visiting Masters student</t>
+    <t>Upcoming</t>
+  </si>
+  <si>
+    <t>Hort, Thomas Mr</t>
+  </si>
+  <si>
+    <t>u6943310@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Raja, Lakshmi Ms</t>
+  </si>
+  <si>
+    <t>lakshraja2001@gmail.com</t>
+  </si>
+  <si>
+    <t>Visiting Student</t>
+  </si>
+  <si>
+    <t>Distinguished Professor</t>
+  </si>
+  <si>
+    <t>Dutt, Shankar Dr</t>
+  </si>
+  <si>
+    <t>xiang.lian@anu.edu.au</t>
+  </si>
+  <si>
+    <t>sai.vinnakota@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Williams, Jim </t>
+  </si>
+  <si>
+    <t>samuel.case@anu.edu.au</t>
+  </si>
+  <si>
+    <t>bogong.wang@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Afrin, Nahid</t>
+  </si>
+  <si>
+    <t>nahid.afrin@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Undergraduate Student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhang, Yifu </t>
+  </si>
+  <si>
+    <t>Vimard, Sophie</t>
+  </si>
+  <si>
+    <t>taylor.gluck@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Dunstone, Robert</t>
+  </si>
+  <si>
+    <t>u8084600@anu.edu.au</t>
+  </si>
+  <si>
+    <t>u7681745@anu.edu.au</t>
+  </si>
+  <si>
+    <t>Ninham, Barry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case, Sam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnott, James </t>
+  </si>
+  <si>
+    <t>J4 16D Cubicles</t>
+  </si>
+  <si>
+    <t>J4 16E Cubicles</t>
   </si>
   <si>
     <t>J4 16F Cubicles</t>
-  </si>
-  <si>
-    <t>Diogo Barreiros Scatamburlo</t>
-  </si>
-  <si>
-    <t>15 Feb to 31st August 2025</t>
-  </si>
-  <si>
-    <t>Delayed arrival due to Visa problems</t>
-  </si>
-  <si>
-    <t>Liang, Zixin (Zoe) Ms</t>
-  </si>
-  <si>
-    <t>Zixin.Liang@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Crystal, Angelique Ms</t>
-  </si>
-  <si>
-    <t>Upcoming</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>Hort, Thomas Mr</t>
-  </si>
-  <si>
-    <t>u6943310@anu.edu.au</t>
-  </si>
-  <si>
-    <t>Raja, Lakshmi Ms</t>
-  </si>
-  <si>
-    <t>lakshraja2001@gmail.com</t>
-  </si>
-  <si>
-    <t>Visiting Student</t>
-  </si>
-  <si>
-    <t>Shetty, Shishir Anil Mr</t>
-  </si>
-  <si>
-    <t>shishirshetty366@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -893,6 +809,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -927,16 +851,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1237,15 +1166,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="78.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1270,36 +1203,36 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -1307,19 +1240,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -1327,19 +1257,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -1347,70 +1277,79 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
-        <v>26</v>
+      <c r="C7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
+        <v>171</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
+        <v>214</v>
+      </c>
+      <c r="D9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1418,39 +1357,39 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
+        <v>51</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1458,73 +1397,79 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
-        <v>39</v>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
+        <v>77</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="D14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
+        <v>176</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -1532,19 +1477,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
+        <v>176</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1552,19 +1497,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" t="s">
-        <v>55</v>
+        <v>89</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4.1100000000000003</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1572,36 +1517,39 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>48</v>
+        <v>89</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" t="s">
-        <v>61</v>
+        <v>113</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4.0999999999999996</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1609,19 +1557,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
+        <v>9</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4.0999999999999996</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1629,16 +1577,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" t="s">
-        <v>67</v>
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4.1100000000000003</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -1646,19 +1597,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>213</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" t="s">
-        <v>67</v>
+        <v>9</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4.1100000000000003</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -1666,16 +1617,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" t="s">
-        <v>72</v>
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="4">
+        <v>4.2300000000000004</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -1683,19 +1637,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C24" t="s">
-        <v>74</v>
+      <c r="C24" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" t="s">
-        <v>72</v>
+        <v>9</v>
+      </c>
+      <c r="E24" s="4">
+        <v>4.2300000000000004</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -1703,113 +1657,119 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" t="s">
-        <v>79</v>
+        <v>9</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" t="s">
-        <v>79</v>
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" t="s">
-        <v>85</v>
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" t="s">
-        <v>85</v>
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" t="s">
-        <v>92</v>
+        <v>9</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="E30" t="s">
-        <v>94</v>
+      <c r="C30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -1817,13 +1777,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
-      <c r="E31" t="s">
-        <v>96</v>
+      <c r="C31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -1831,19 +1797,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
-      <c r="C32" t="s">
-        <v>98</v>
+      <c r="C32" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" t="s">
-        <v>99</v>
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
@@ -1851,16 +1817,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" t="s">
-        <v>99</v>
+        <v>153</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -1868,19 +1837,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="C34" t="s">
-        <v>103</v>
+      <c r="C34" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" t="s">
-        <v>105</v>
+        <v>9</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
@@ -1888,19 +1857,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35" t="s">
-        <v>107</v>
+      <c r="C35" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" t="s">
-        <v>105</v>
+        <v>9</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
@@ -1908,19 +1877,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36" t="s">
-        <v>109</v>
+      <c r="C36" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" t="s">
-        <v>105</v>
+        <v>209</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -1928,19 +1897,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="C37" t="s">
-        <v>111</v>
+      <c r="C37" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" t="s">
-        <v>112</v>
+        <v>9</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
@@ -1948,19 +1917,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
-      <c r="C38" t="s">
-        <v>114</v>
+      <c r="C38" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" t="s">
-        <v>115</v>
+        <v>209</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
@@ -1968,144 +1937,156 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" t="s">
-        <v>115</v>
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
-      <c r="E40" t="s">
-        <v>119</v>
+      <c r="C40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="D41" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" t="s">
-        <v>123</v>
+        <v>9</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" t="s">
-        <v>123</v>
+        <v>9</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" t="s">
-        <v>129</v>
+        <v>9</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
-      </c>
-      <c r="E44" t="s">
-        <v>129</v>
+        <v>218</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>243</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
-      <c r="C45" t="s">
-        <v>133</v>
-      </c>
-      <c r="E45" t="s">
-        <v>134</v>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" t="s">
-        <v>134</v>
+        <v>21</v>
+      </c>
+      <c r="E46" s="2">
+        <v>4.08</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
@@ -2113,19 +2094,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>234</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" t="s">
-        <v>139</v>
+        <v>21</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
@@ -2133,130 +2114,139 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
-      </c>
-      <c r="E48" t="s">
-        <v>139</v>
+        <v>21</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" t="s">
-        <v>145</v>
+        <v>21</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
-      <c r="E50" t="s">
-        <v>145</v>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
+      <c r="C51" t="s">
+        <v>197</v>
+      </c>
       <c r="D51" t="s">
-        <v>148</v>
-      </c>
-      <c r="E51" t="s">
-        <v>145</v>
+        <v>21</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
-      </c>
-      <c r="E52" t="s">
-        <v>151</v>
+        <v>21</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" t="s">
-        <v>154</v>
+        <v>51</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="D54" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" t="s">
-        <v>157</v>
+        <v>51</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
@@ -2264,904 +2254,825 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" t="s">
-        <v>160</v>
+        <v>51</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="D56" t="s">
-        <v>91</v>
-      </c>
-      <c r="E56" t="s">
-        <v>163</v>
+        <v>51</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" t="s">
-        <v>163</v>
+        <v>25</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>126</v>
-      </c>
-      <c r="E58" t="s">
-        <v>168</v>
+        <v>25</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
-      </c>
-      <c r="E59" t="s">
-        <v>168</v>
+        <v>25</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="D60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E60" t="s">
-        <v>173</v>
+        <v>25</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="D61" t="s">
-        <v>88</v>
-      </c>
-      <c r="E61" t="s">
-        <v>173</v>
+        <v>25</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" t="s">
-        <v>178</v>
+        <v>25</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="D63" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" t="s">
-        <v>178</v>
+        <v>25</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>126</v>
-      </c>
-      <c r="E64" t="s">
-        <v>183</v>
+        <v>25</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c r="D65" t="s">
-        <v>126</v>
-      </c>
-      <c r="E65" t="s">
-        <v>183</v>
+        <v>25</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>187</v>
-      </c>
-      <c r="E66" t="s">
-        <v>188</v>
+        <v>132</v>
+      </c>
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="D67" t="s">
-        <v>42</v>
-      </c>
-      <c r="E67" t="s">
-        <v>191</v>
+        <v>25</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="F67" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E68" t="s">
-        <v>191</v>
+        <v>84</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="F68" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="D69" t="s">
-        <v>42</v>
-      </c>
-      <c r="E69" t="s">
-        <v>197</v>
+        <v>84</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="F69" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>199</v>
+        <v>46</v>
       </c>
       <c r="D70" t="s">
-        <v>42</v>
-      </c>
-      <c r="E70" t="s">
-        <v>197</v>
+        <v>47</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="F70" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D71" t="s">
-        <v>42</v>
-      </c>
-      <c r="E71" t="s">
-        <v>202</v>
+        <v>47</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="F71" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c r="D72" t="s">
-        <v>42</v>
-      </c>
-      <c r="E72" t="s">
-        <v>202</v>
+        <v>29</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="F72" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="D73" t="s">
-        <v>42</v>
-      </c>
-      <c r="E73" t="s">
-        <v>207</v>
+        <v>29</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="F73" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>91</v>
-      </c>
-      <c r="E74" t="s">
-        <v>207</v>
+        <v>29</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="D75" t="s">
-        <v>42</v>
-      </c>
-      <c r="E75" t="s">
-        <v>212</v>
+        <v>29</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F75" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>213</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>214</v>
+        <v>147</v>
       </c>
       <c r="D76" t="s">
-        <v>42</v>
-      </c>
-      <c r="E76" t="s">
-        <v>212</v>
+        <v>29</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="F76" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="D77" t="s">
-        <v>42</v>
-      </c>
-      <c r="E77" t="s">
-        <v>212</v>
+        <v>29</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="F77" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
-      </c>
-      <c r="E78" t="s">
-        <v>219</v>
+        <v>29</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="F78" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="D79" t="s">
-        <v>222</v>
-      </c>
-      <c r="E79" t="s">
-        <v>223</v>
+        <v>29</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="F79" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>224</v>
+        <v>117</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" t="s">
-        <v>226</v>
+        <v>29</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="F80" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
-      <c r="C81" t="s">
-        <v>228</v>
-      </c>
       <c r="D81" t="s">
-        <v>75</v>
-      </c>
-      <c r="E81" t="s">
-        <v>229</v>
+        <v>29</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="F81" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
       </c>
+      <c r="C82" t="s">
+        <v>203</v>
+      </c>
       <c r="D82" t="s">
-        <v>42</v>
-      </c>
-      <c r="E82" t="s">
-        <v>231</v>
+        <v>29</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F82" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
       </c>
+      <c r="C83" t="s">
+        <v>28</v>
+      </c>
       <c r="D83" t="s">
-        <v>233</v>
-      </c>
-      <c r="E83" t="s">
-        <v>231</v>
+        <v>29</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="D84" t="s">
-        <v>42</v>
-      </c>
-      <c r="E84" t="s">
-        <v>236</v>
+        <v>29</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>237</v>
+        <v>68</v>
       </c>
       <c r="B85" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>239</v>
+        <v>69</v>
       </c>
       <c r="D85" t="s">
-        <v>122</v>
-      </c>
-      <c r="E85" t="s">
-        <v>236</v>
+        <v>29</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>233</v>
-      </c>
-      <c r="E86" t="s">
-        <v>236</v>
+        <v>242</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>42</v>
-      </c>
-      <c r="E87" t="s">
-        <v>236</v>
+        <v>242</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="F87" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>242</v>
-      </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" t="s">
-        <v>243</v>
-      </c>
-      <c r="D88" t="s">
-        <v>42</v>
-      </c>
-      <c r="E88" t="s">
-        <v>236</v>
+      <c r="E88" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="F88" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>244</v>
-      </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
-        <v>245</v>
-      </c>
-      <c r="D89" t="s">
-        <v>142</v>
-      </c>
-      <c r="E89" t="s">
-        <v>246</v>
+      <c r="E89" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="F89" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>247</v>
-      </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" t="s">
-        <v>142</v>
-      </c>
-      <c r="E90" t="s">
-        <v>246</v>
+      <c r="E90" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="F90" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
       </c>
-      <c r="C91" t="s">
-        <v>249</v>
-      </c>
-      <c r="D91" t="s">
-        <v>250</v>
-      </c>
-      <c r="E91" t="s">
-        <v>251</v>
+      <c r="E91" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="F91" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
       </c>
-      <c r="D92" t="s">
-        <v>253</v>
-      </c>
-      <c r="E92" t="s">
-        <v>251</v>
+      <c r="E92" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
       </c>
+      <c r="C93" t="s">
+        <v>194</v>
+      </c>
       <c r="D93" t="s">
-        <v>255</v>
-      </c>
-      <c r="E93" t="s">
-        <v>256</v>
+        <v>29</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="F93" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="D94" t="s">
-        <v>259</v>
-      </c>
-      <c r="E94" t="s">
-        <v>256</v>
+        <v>29</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="F94" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="B95" t="s">
-        <v>261</v>
-      </c>
-      <c r="D95" t="s">
-        <v>262</v>
-      </c>
-      <c r="E95" t="s">
-        <v>263</v>
+        <v>7</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="F95" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>265</v>
-      </c>
-      <c r="D96" t="s">
-        <v>259</v>
-      </c>
-      <c r="E96" t="s">
-        <v>263</v>
+        <v>181</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>266</v>
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>94</v>
       </c>
       <c r="D97" t="s">
-        <v>267</v>
-      </c>
-      <c r="E97" t="s">
-        <v>268</v>
+        <v>29</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>269</v>
-      </c>
-      <c r="B98" t="s">
-        <v>270</v>
-      </c>
-      <c r="C98" t="s">
-        <v>271</v>
-      </c>
-      <c r="D98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E98" t="s">
-        <v>268</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>272</v>
-      </c>
-      <c r="B99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" t="s">
-        <v>273</v>
-      </c>
-      <c r="D99" t="s">
-        <v>42</v>
-      </c>
-      <c r="E99" t="s">
-        <v>99</v>
-      </c>
-      <c r="F99" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" t="s">
-        <v>103</v>
-      </c>
-      <c r="D100" t="s">
-        <v>42</v>
-      </c>
-      <c r="E100" t="s">
-        <v>99</v>
-      </c>
-      <c r="F100" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F97" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F97">
+      <sortCondition ref="D1:D97"/>
+    </sortState>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="C38" r:id="rId1" xr:uid="{BE316A06-C90F-E545-980E-B823B6B5EA0E}"/>
+    <hyperlink ref="C37" r:id="rId2" xr:uid="{6E80093D-7357-FD4B-9BFD-3BD63D493A99}"/>
+    <hyperlink ref="C35" r:id="rId3" xr:uid="{51F179FB-0C77-7A4A-8307-C1940F3AF7A4}"/>
+    <hyperlink ref="C36" r:id="rId4" xr:uid="{8B0745D5-297B-5848-AC1A-F94FEA641FC6}"/>
+    <hyperlink ref="C24" r:id="rId5" xr:uid="{9E53D7BD-9946-6945-ACE2-AA7A99B6E13A}"/>
+    <hyperlink ref="C17" r:id="rId6" xr:uid="{6EC78CCE-0869-974A-B697-2B8A7C9DE3D0}"/>
+    <hyperlink ref="C34" r:id="rId7" display="mailto:u8084600@anu.edu.au" xr:uid="{579B5D91-25C5-DD4D-92E6-3ED4F64ACECB}"/>
+    <hyperlink ref="C32" r:id="rId8" display="mailto:u7681745@anu.edu.au" xr:uid="{F6230282-215F-1A40-8B85-010E7FE49F9C}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3187,64 +3098,30 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E2" t="s">
-        <v>276</v>
+        <v>227</v>
+      </c>
+      <c r="C2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" t="s">
-        <v>280</v>
-      </c>
-      <c r="D4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E5" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/data/MP_Office_Allocation.xlsx
+++ b/data/MP_Office_Allocation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anu365-my.sharepoint.com/personal/u6591731_anu_edu_au/Documents/Cloudstor/DOCUMENTS/Programming/Python/MP_Office_Management/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{53F36FA0-46D1-6F49-A3B0-88C57D476C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF830433-C22C-014C-A93F-4147998D4DA3}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{53F36FA0-46D1-6F49-A3B0-88C57D476C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BCB097B-4D91-8647-B62C-8EF3CEB2DCFA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="257">
   <si>
     <t>Name</t>
   </si>
@@ -69,9 +69,6 @@
     <t>4.12</t>
   </si>
   <si>
-    <t>J4 16A Cubicles</t>
-  </si>
-  <si>
     <t>Banerjee, Biswajit Dr</t>
   </si>
   <si>
@@ -783,13 +780,22 @@
     <t xml:space="preserve">Arnott, James </t>
   </si>
   <si>
-    <t>J4 16D Cubicles</t>
-  </si>
-  <si>
-    <t>J4 16E Cubicles</t>
-  </si>
-  <si>
-    <t>J4 16F Cubicles</t>
+    <t>4.16A Cubicles</t>
+  </si>
+  <si>
+    <t>4.16B Cubicles</t>
+  </si>
+  <si>
+    <t>4.16D Cubicles</t>
+  </si>
+  <si>
+    <t>4.16E Cubicles</t>
+  </si>
+  <si>
+    <t>4.16F Cubicles</t>
+  </si>
+  <si>
+    <t>4.10</t>
   </si>
 </sst>
 </file>
@@ -1168,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1203,36 +1209,36 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>219</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>220</v>
-      </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -1240,16 +1246,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -1257,19 +1263,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>223</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>224</v>
-      </c>
       <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -1277,79 +1283,79 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>102</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>183</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" t="s">
         <v>170</v>
       </c>
-      <c r="D8" t="s">
-        <v>171</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="D9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1357,39 +1363,39 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1397,79 +1403,79 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
         <v>75</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>76</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
         <v>98</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
         <v>174</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>175</v>
       </c>
-      <c r="D14" t="s">
-        <v>176</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
         <v>71</v>
       </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -1477,19 +1483,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
         <v>161</v>
       </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>162</v>
-      </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1497,16 +1503,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" t="s">
         <v>88</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D17" t="s">
-        <v>89</v>
       </c>
       <c r="E17" s="4">
         <v>4.1100000000000003</v>
@@ -1517,39 +1523,39 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
         <v>186</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>187</v>
-      </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
         <v>112</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>113</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="4">
-        <v>4.0999999999999996</v>
+      <c r="E19" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1557,19 +1563,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
         <v>172</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>173</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="4">
-        <v>4.0999999999999996</v>
+      <c r="E20" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1577,13 +1583,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
         <v>96</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>97</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -1597,13 +1603,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
         <v>212</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>213</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -1637,13 +1643,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -1657,119 +1663,119 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
         <v>90</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>91</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
         <v>168</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>169</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
         <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
         <v>43</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>44</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
         <v>65</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
         <v>104</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>105</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -1777,19 +1783,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
         <v>200</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>201</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -1803,7 +1809,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -1817,13 +1823,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
         <v>152</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>153</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -1837,13 +1843,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -1857,19 +1863,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
@@ -1877,19 +1883,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" t="s">
         <v>208</v>
       </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D36" t="s">
-        <v>209</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -1897,19 +1903,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
@@ -1917,19 +1923,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
@@ -1937,127 +1943,127 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
         <v>53</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>54</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
         <v>138</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>139</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
         <v>163</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
-        <v>164</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
         <v>210</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>211</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
         <v>109</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>110</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>216</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
         <v>217</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>218</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -2066,26 +2072,26 @@
         <v>9</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
         <v>107</v>
       </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>108</v>
-      </c>
       <c r="D46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="2">
+        <v>20</v>
+      </c>
+      <c r="E46" s="4">
         <v>4.08</v>
       </c>
       <c r="F46" t="s">
@@ -2094,16 +2100,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
@@ -2114,139 +2120,139 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
         <v>141</v>
       </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
         <v>198</v>
       </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>199</v>
-      </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
         <v>19</v>
       </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>20</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
         <v>196</v>
       </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>197</v>
-      </c>
       <c r="D51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
         <v>120</v>
       </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>121</v>
-      </c>
       <c r="D52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
         <v>128</v>
       </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D53" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
         <v>125</v>
       </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D54" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
@@ -2254,319 +2260,319 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
         <v>188</v>
       </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D55" t="s">
-        <v>51</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
         <v>49</v>
       </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>50</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
         <v>165</v>
       </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>166</v>
-      </c>
       <c r="D57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
         <v>62</v>
       </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D58" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
         <v>122</v>
       </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D60" t="s">
-        <v>25</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
         <v>136</v>
       </c>
-      <c r="B61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" t="s">
-        <v>137</v>
-      </c>
       <c r="D61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
         <v>114</v>
       </c>
-      <c r="B62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D62" t="s">
-        <v>25</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
         <v>79</v>
       </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
         <v>23</v>
       </c>
-      <c r="B64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>24</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
         <v>34</v>
       </c>
-      <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D65" t="s">
-        <v>25</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
         <v>131</v>
       </c>
-      <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D66" t="s">
-        <v>25</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>224</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
         <v>225</v>
       </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" t="s">
-        <v>226</v>
-      </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
         <v>158</v>
       </c>
-      <c r="B68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D68" t="s">
-        <v>84</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="F68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
         <v>82</v>
       </c>
-      <c r="B69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>83</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
         <v>45</v>
       </c>
-      <c r="B70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>46</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F70" t="s">
         <v>11</v>
@@ -2574,296 +2580,296 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
         <v>206</v>
       </c>
-      <c r="B71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" t="s">
-        <v>207</v>
-      </c>
       <c r="D71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
         <v>134</v>
       </c>
-      <c r="B72" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" t="s">
-        <v>135</v>
-      </c>
       <c r="D72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
         <v>154</v>
       </c>
-      <c r="B73" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" t="s">
-        <v>155</v>
-      </c>
       <c r="D73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
         <v>15</v>
       </c>
-      <c r="B74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D74" t="s">
-        <v>29</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
         <v>144</v>
       </c>
-      <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" t="s">
-        <v>145</v>
-      </c>
       <c r="D75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
         <v>146</v>
       </c>
-      <c r="B76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D76" t="s">
-        <v>29</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="F76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
         <v>156</v>
       </c>
-      <c r="B77" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" t="s">
-        <v>157</v>
-      </c>
       <c r="D77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>190</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
         <v>191</v>
       </c>
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" t="s">
-        <v>192</v>
-      </c>
       <c r="D78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
         <v>163</v>
       </c>
-      <c r="B79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" t="s">
-        <v>164</v>
-      </c>
       <c r="D79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
         <v>117</v>
       </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D80" t="s">
-        <v>29</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>201</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
         <v>202</v>
       </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" t="s">
-        <v>203</v>
-      </c>
       <c r="D82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
         <v>27</v>
       </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>28</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>203</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
         <v>204</v>
       </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
-        <v>205</v>
-      </c>
       <c r="D84" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>67</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
         <v>68</v>
       </c>
-      <c r="B85" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" t="s">
-        <v>69</v>
-      </c>
       <c r="D85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="F85" t="s">
         <v>11</v>
@@ -2871,16 +2877,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>250</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" t="s">
+        <v>241</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" t="s">
-        <v>242</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F86" t="s">
         <v>11</v>
@@ -2888,16 +2894,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="F87" t="s">
         <v>11</v>
@@ -2905,7 +2911,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E88" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F88" t="s">
         <v>11</v>
@@ -2913,7 +2919,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E89" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F89" t="s">
         <v>11</v>
@@ -2921,7 +2927,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E90" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F90" t="s">
         <v>11</v>
@@ -2929,121 +2935,121 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="F91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>192</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
         <v>193</v>
       </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D93" t="s">
-        <v>29</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="F93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>220</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
         <v>221</v>
       </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
-        <v>222</v>
-      </c>
       <c r="D94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>179</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
         <v>180</v>
       </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" t="s">
-        <v>181</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>92</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
         <v>93</v>
       </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D97" t="s">
-        <v>29</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3098,13 +3104,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" t="s">
         <v>228</v>
-      </c>
-      <c r="B2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" t="s">
-        <v>229</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -3112,16 +3118,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" t="s">
         <v>230</v>
       </c>
-      <c r="B3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>231</v>
-      </c>
-      <c r="D3" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/data/MP_Office_Allocation.xlsx
+++ b/data/MP_Office_Allocation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anu365-my.sharepoint.com/personal/u6591731_anu_edu_au/Documents/Cloudstor/DOCUMENTS/Programming/Python/MP_Office_Management/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{53F36FA0-46D1-6F49-A3B0-88C57D476C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BCB097B-4D91-8647-B62C-8EF3CEB2DCFA}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{53F36FA0-46D1-6F49-A3B0-88C57D476C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{393FC6FE-44AE-5044-9578-58F4383A72EC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="256">
   <si>
     <t>Name</t>
   </si>
@@ -243,12 +243,6 @@
     <t>u7487073@anu.edu.au</t>
   </si>
   <si>
-    <t>J4 16B Cubicles</t>
-  </si>
-  <si>
-    <t>J4 16C Cubicles</t>
-  </si>
-  <si>
     <t>Evans, Phil Prof</t>
   </si>
   <si>
@@ -796,6 +790,9 @@
   </si>
   <si>
     <t>4.10</t>
+  </si>
+  <si>
+    <t>4.16C Cubicles</t>
   </si>
 </sst>
 </file>
@@ -866,9 +863,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1174,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1184,7 +1183,7 @@
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1200,7 +1199,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1209,18 +1208,18 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F2" t="s">
@@ -1237,7 +1236,7 @@
       <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F3" t="s">
@@ -1246,7 +1245,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1254,7 +1253,7 @@
       <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F4" t="s">
@@ -1263,18 +1262,18 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F5" t="s">
@@ -1283,19 +1282,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>99</v>
+      <c r="E6" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -1303,19 +1302,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -1323,19 +1322,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>77</v>
+        <v>168</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -1343,19 +1342,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>214</v>
+        <v>168</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1374,7 +1373,7 @@
       <c r="D10" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F10" t="s">
@@ -1394,7 +1393,7 @@
       <c r="D11" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F11" t="s">
@@ -1403,19 +1402,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
         <v>74</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -1423,19 +1422,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -1443,18 +1442,18 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" t="s">
         <v>173</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14" t="s">
-        <v>175</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F14" t="s">
@@ -1472,10 +1471,10 @@
         <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>72</v>
+        <v>173</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -1483,19 +1482,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>73</v>
+        <v>173</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1503,18 +1502,18 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>244</v>
+      <c r="C17" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="4">
+        <v>86</v>
+      </c>
+      <c r="E17" s="3">
         <v>4.1100000000000003</v>
       </c>
       <c r="F17" t="s">
@@ -1523,19 +1522,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>118</v>
+        <v>86</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -1543,19 +1542,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>256</v>
+      <c r="E19" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1563,19 +1562,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>256</v>
+      <c r="E20" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1583,18 +1582,18 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>4.1100000000000003</v>
       </c>
       <c r="F21" t="s">
@@ -1603,18 +1602,18 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>4.1100000000000003</v>
       </c>
       <c r="F22" t="s">
@@ -1634,7 +1633,7 @@
       <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>4.2300000000000004</v>
       </c>
       <c r="F23" t="s">
@@ -1643,18 +1642,18 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>240</v>
+      <c r="C24" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>4.2300000000000004</v>
       </c>
       <c r="F24" t="s">
@@ -1663,19 +1662,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>91</v>
+      <c r="E25" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
@@ -1683,19 +1682,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>91</v>
+      <c r="E26" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -1714,7 +1713,7 @@
       <c r="D27" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F27" t="s">
@@ -1734,7 +1733,7 @@
       <c r="D28" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F28" t="s">
@@ -1754,7 +1753,7 @@
       <c r="D29" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F29" t="s">
@@ -1763,19 +1762,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>105</v>
+      <c r="E30" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -1783,19 +1782,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>105</v>
+      <c r="E31" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -1808,13 +1807,13 @@
       <c r="B32" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>247</v>
+      <c r="C32" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F32" t="s">
@@ -1823,18 +1822,18 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F33" t="s">
@@ -1843,18 +1842,18 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>246</v>
+      <c r="C34" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F34" t="s">
@@ -1863,19 +1862,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>237</v>
+      <c r="C35" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>181</v>
+      <c r="E35" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
@@ -1883,19 +1882,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>238</v>
+      <c r="C36" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="D36" t="s">
-        <v>208</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>181</v>
+        <v>206</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -1903,19 +1902,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>235</v>
+      <c r="C37" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>86</v>
+      <c r="E37" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
@@ -1923,19 +1922,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>234</v>
+      <c r="C38" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="D38" t="s">
-        <v>208</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>206</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
@@ -1954,7 +1953,7 @@
       <c r="D39" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F39" t="s">
@@ -1963,19 +1962,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>139</v>
+      <c r="E40" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -1983,19 +1982,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>139</v>
+      <c r="E41" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -2003,19 +2002,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>139</v>
+      <c r="E42" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -2023,19 +2022,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>110</v>
+      <c r="E43" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -2043,19 +2042,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>110</v>
+      <c r="E44" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
@@ -2063,7 +2062,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -2071,8 +2070,8 @@
       <c r="D45" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>115</v>
+      <c r="E45" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -2080,18 +2079,18 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D46" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <v>4.08</v>
       </c>
       <c r="F46" t="s">
@@ -2100,7 +2099,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -2111,7 +2110,7 @@
       <c r="D47" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F47" t="s">
@@ -2120,19 +2119,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>142</v>
+      <c r="E48" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
@@ -2140,18 +2139,18 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D49" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F49" t="s">
@@ -2171,7 +2170,7 @@
       <c r="D50" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F50" t="s">
@@ -2180,18 +2179,18 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D51" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F51" t="s">
@@ -2200,19 +2199,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D52" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>84</v>
+      <c r="E52" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
@@ -2220,19 +2219,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D53" t="s">
         <v>50</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>129</v>
+      <c r="E53" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
@@ -2240,19 +2239,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D54" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>126</v>
+      <c r="E54" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
@@ -2260,19 +2259,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D55" t="s">
         <v>50</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>189</v>
+      <c r="E55" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
@@ -2291,7 +2290,7 @@
       <c r="D56" t="s">
         <v>50</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F56" t="s">
@@ -2300,18 +2299,18 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F57" t="s">
@@ -2331,7 +2330,7 @@
       <c r="D58" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F58" t="s">
@@ -2351,7 +2350,7 @@
       <c r="D59" t="s">
         <v>24</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F59" t="s">
@@ -2360,19 +2359,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>123</v>
+      <c r="E60" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
@@ -2380,19 +2379,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D61" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>94</v>
+      <c r="E61" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
@@ -2400,19 +2399,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D62" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>115</v>
+      <c r="E62" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -2420,19 +2419,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D63" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>80</v>
+      <c r="E63" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -2451,7 +2450,7 @@
       <c r="D64" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F64" t="s">
@@ -2471,7 +2470,7 @@
       <c r="D65" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F65" t="s">
@@ -2480,19 +2479,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D66" t="s">
         <v>24</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>132</v>
+      <c r="E66" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
@@ -2500,19 +2499,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D67" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>132</v>
+      <c r="E67" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
@@ -2520,19 +2519,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="B68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" t="s">
-        <v>158</v>
-      </c>
-      <c r="D68" t="s">
-        <v>83</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
@@ -2540,19 +2539,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" t="s">
         <v>81</v>
       </c>
-      <c r="B69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="E69" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="D69" t="s">
-        <v>83</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
@@ -2571,7 +2570,7 @@
       <c r="D70" t="s">
         <v>46</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F70" t="s">
@@ -2580,19 +2579,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" t="s">
         <v>46</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>194</v>
+      <c r="E71" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
@@ -2600,19 +2599,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D72" t="s">
         <v>28</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>77</v>
+      <c r="E72" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
@@ -2620,19 +2619,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D73" t="s">
         <v>28</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>100</v>
+      <c r="E73" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F73" t="s">
         <v>17</v>
@@ -2651,7 +2650,7 @@
       <c r="D74" t="s">
         <v>28</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F74" t="s">
@@ -2660,18 +2659,18 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D75" t="s">
         <v>28</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F75" t="s">
@@ -2680,19 +2679,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D76" t="s">
         <v>28</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>147</v>
+      <c r="E76" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F76" t="s">
         <v>17</v>
@@ -2700,19 +2699,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D77" t="s">
         <v>28</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>147</v>
+      <c r="E77" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F77" t="s">
         <v>17</v>
@@ -2720,18 +2719,18 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D78" t="s">
         <v>28</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F78" t="s">
@@ -2740,19 +2739,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D79" t="s">
         <v>28</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>110</v>
+      <c r="E79" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="F79" t="s">
         <v>17</v>
@@ -2760,19 +2759,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D80" t="s">
         <v>28</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>118</v>
+      <c r="E80" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
@@ -2780,7 +2779,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -2788,8 +2787,8 @@
       <c r="D81" t="s">
         <v>28</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>115</v>
+      <c r="E81" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="F81" t="s">
         <v>17</v>
@@ -2797,18 +2796,18 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D82" t="s">
         <v>28</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F82" t="s">
@@ -2828,7 +2827,7 @@
       <c r="D83" t="s">
         <v>28</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F83" t="s">
@@ -2837,18 +2836,18 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D84" t="s">
         <v>28</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F84" t="s">
@@ -2868,8 +2867,8 @@
       <c r="D85" t="s">
         <v>28</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>251</v>
+      <c r="E85" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="F85" t="s">
         <v>11</v>
@@ -2877,16 +2876,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>241</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="F86" t="s">
         <v>11</v>
@@ -2894,40 +2893,40 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>241</v>
-      </c>
-      <c r="E87" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E88" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E89" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F87" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E88" s="2" t="s">
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E90" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="F88" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E89" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E90" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="F90" t="s">
         <v>11</v>
@@ -2935,13 +2934,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>177</v>
+      <c r="E91" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="F91" t="s">
         <v>17</v>
@@ -2949,13 +2948,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>174</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="F92" t="s">
         <v>17</v>
@@ -2963,19 +2962,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D93" t="s">
         <v>28</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>194</v>
+      <c r="E93" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
@@ -2983,19 +2982,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D94" t="s">
         <v>28</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>139</v>
+      <c r="E94" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
@@ -3003,13 +3002,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>149</v>
+      <c r="E95" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
@@ -3017,16 +3016,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>180</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>123</v>
+        <v>178</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
@@ -3034,19 +3033,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D97" t="s">
         <v>28</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>94</v>
+      <c r="E97" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="F97" t="s">
         <v>17</v>
@@ -3104,13 +3103,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" t="s">
         <v>226</v>
-      </c>
-      <c r="C2" t="s">
-        <v>228</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -3118,16 +3117,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" t="s">
         <v>229</v>
-      </c>
-      <c r="B3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
